--- a/bme/environment.xlsx
+++ b/bme/environment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natha\Documents\GitHub\OutdoorPi\bme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{574E9921-C0EE-473E-B4B6-1CC8C506BB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D117785-BFE5-4F1E-8FEF-AE0606C889F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{28278915-3186-4B3E-9833-7E9B21AB5C79}"/>
   </bookViews>
@@ -422,13 +422,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
